--- a/data/trans_bre/P1804-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Habitat-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P1804-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,12 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27,16%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>62,83%</t>
         </is>
       </c>
     </row>
@@ -619,12 +678,32 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,06; 10,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 8,81</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-53,73; 227,8</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-42,15; 403,7</t>
         </is>
       </c>
     </row>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>2,09</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55,12%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>78,68%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 4,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 5,23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-8,21; 170,08</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-14,73; 258,74</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>53,43%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,97%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 5,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 4,14</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 112,9</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-14,49; 72,49</t>
         </is>
       </c>
     </row>
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>119,24%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>69,1%</t>
         </is>
       </c>
     </row>
@@ -799,12 +978,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 9,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 3,95</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>50,72; 213,63</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 183,02</t>
         </is>
       </c>
     </row>
@@ -831,12 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32,82%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29,07%</t>
         </is>
       </c>
     </row>
@@ -859,12 +1078,32 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 6,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 4,61</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 76,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 67,4</t>
         </is>
       </c>
     </row>
@@ -891,12 +1130,32 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>57,7%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34,44%</t>
         </is>
       </c>
     </row>
@@ -919,12 +1178,32 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,17; 4,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 3,15</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>31,87; 88,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 59,04</t>
         </is>
       </c>
     </row>
@@ -938,11 +1217,11 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P1804-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>46,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>62,83%</t>
+          <t>79,53%</t>
         </is>
       </c>
     </row>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 10,05</t>
+          <t>-0,17; 4,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 8,81</t>
+          <t>0,04; 5,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,19 +698,19 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,73; 227,8</t>
+          <t>-6,43; 133,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-42,15; 403,7</t>
+          <t>-2,59; 228,71</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -730,12 +730,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,12%</t>
+          <t>53,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,68%</t>
+          <t>45,09%</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 4,71</t>
+          <t>0,74; 5,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 5,23</t>
+          <t>-0,08; 6,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,19 +798,19 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 170,08</t>
+          <t>8,2; 112,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,73; 258,74</t>
+          <t>-1,21; 182,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -830,12 +830,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -850,12 +850,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>53,43%</t>
+          <t>119,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>46,99%</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,42</t>
+          <t>3,53; 9,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,14</t>
+          <t>-1,47; 3,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,19 +898,19 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 112,9</t>
+          <t>50,72; 213,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 72,49</t>
+          <t>-38,53; 141,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -950,12 +950,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>119,24%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>69,1%</t>
+          <t>23,25%</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,09</t>
+          <t>0,26; 6,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,95</t>
+          <t>-0,68; 4,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,19 +998,19 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,72; 213,63</t>
+          <t>2,19; 76,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 183,02</t>
+          <t>-6,68; 61,16</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>57,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>37,16%</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,07</t>
+          <t>2,17; 4,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,61</t>
+          <t>0,36; 3,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,124 +1098,24 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,19; 76,66</t>
+          <t>31,87; 88,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 67,4</t>
+          <t>6,66; 78,36</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,63</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>57,7%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>34,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,17; 4,92</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,69; 3,15</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>31,87; 88,4</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>9,69; 59,04</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P1804-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1804-Habitat-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,71</t>
+          <t>-0,08; 4,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,04; 5,29</t>
+          <t>0,17; 5,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 133,46</t>
+          <t>-2,04; 138,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 228,71</t>
+          <t>-3,14; 228,8</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 5,42</t>
+          <t>0,94; 5,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 6,29</t>
+          <t>-0,11; 6,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,2; 112,9</t>
+          <t>13,77; 113,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 182,89</t>
+          <t>-2,69; 179,86</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 9,09</t>
+          <t>3,3; 9,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,22</t>
+          <t>-1,41; 3,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,72; 213,63</t>
+          <t>44,56; 214,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,53; 141,47</t>
+          <t>-33,19; 150,48</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,07</t>
+          <t>0,07; 5,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,39</t>
+          <t>-1,0; 4,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,19; 76,66</t>
+          <t>-0,51; 69,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 61,16</t>
+          <t>-10,48; 61,4</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,92</t>
+          <t>2,28; 4,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,47</t>
+          <t>0,31; 3,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,87; 88,4</t>
+          <t>32,31; 87,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 78,36</t>
+          <t>7,09; 79,09</t>
         </is>
       </c>
     </row>
